--- a/out/old/Akresh_etal_20190320_welfare_new.xlsx
+++ b/out/old/Akresh_etal_20190320_welfare_new.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan-carlosm/Dropbox/Documents/Projects_papers/2018/Akresh_etal_2018/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit.sharepoint.com/sites/territorios/Projects/2025_Paper_Burundi/household_structure_burundi/out/old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C34C3E5-A15A-B34D-A96A-48D1CD254225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C34C3E5-A15A-B34D-A96A-48D1CD254225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="760" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{443E8D88-0380-544A-94EA-FFC29B6EA207}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{443E8D88-0380-544A-94EA-FFC29B6EA207}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="2" r:id="rId1"/>
     <sheet name="Table 2" sheetId="3" r:id="rId2"/>
     <sheet name="Table 3" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -243,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -251,16 +262,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -270,7 +280,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,22 +290,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -322,9 +329,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,7 +369,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -468,7 +475,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,7 +617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -620,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC8E327-DFF9-884C-8FA7-EDA14B7A45B6}">
   <dimension ref="B2:T50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:T45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,19 +637,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="2:20" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -704,18 +711,18 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" t="str">
@@ -826,60 +833,60 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
@@ -3066,7 +3073,7 @@
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C42" t="str">
@@ -3221,417 +3228,417 @@
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="5" t="str">
+      <c r="C44" s="4" t="str">
         <f t="shared" ref="C44:T44" si="0">"872"</f>
         <v>872</v>
       </c>
-      <c r="D44" s="5" t="str">
+      <c r="D44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="E44" s="5" t="str">
+      <c r="E44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="F44" s="5" t="str">
+      <c r="F44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="G44" s="5" t="str">
+      <c r="G44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="H44" s="5" t="str">
+      <c r="H44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="I44" s="5" t="str">
+      <c r="I44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="J44" s="5" t="str">
+      <c r="J44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="K44" s="5" t="str">
+      <c r="K44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="L44" s="5" t="str">
+      <c r="L44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="M44" s="5" t="str">
+      <c r="M44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="N44" s="5" t="str">
+      <c r="N44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="O44" s="5" t="str">
+      <c r="O44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="P44" s="5" t="str">
+      <c r="P44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="Q44" s="5" t="str">
+      <c r="Q44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="R44" s="5" t="str">
+      <c r="R44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="S44" s="5" t="str">
+      <c r="S44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="T44" s="5" t="str">
+      <c r="T44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="17" t="str">
+      <c r="C45" s="16" t="str">
         <f t="shared" ref="C45:T45" si="1">"0.402"</f>
         <v>0.402</v>
       </c>
-      <c r="D45" s="17" t="str">
+      <c r="D45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="E45" s="17" t="str">
+      <c r="E45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="F45" s="17" t="str">
+      <c r="F45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="G45" s="17" t="str">
+      <c r="G45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="H45" s="17" t="str">
+      <c r="H45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="I45" s="17" t="str">
+      <c r="I45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="J45" s="17" t="str">
+      <c r="J45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="K45" s="17" t="str">
+      <c r="K45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="L45" s="17" t="str">
+      <c r="L45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="M45" s="17" t="str">
+      <c r="M45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="N45" s="17" t="str">
+      <c r="N45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="O45" s="17" t="str">
+      <c r="O45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="P45" s="17" t="str">
+      <c r="P45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="Q45" s="17" t="str">
+      <c r="Q45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="R45" s="17" t="str">
+      <c r="R45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="S45" s="17" t="str">
+      <c r="S45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
-      <c r="T45" s="17" t="str">
+      <c r="T45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.402</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46" s="6" t="s">
+      <c r="C46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="6" t="s">
+      <c r="C47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="6" t="s">
+      <c r="C48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="9" t="s">
+      <c r="C49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="2:20" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3647,8 +3654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBE8D94-1180-F142-A185-CE52D2280E78}">
   <dimension ref="B2:T50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3657,19 +3664,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="2:20" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -3731,18 +3738,18 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" t="str">
@@ -3853,60 +3860,60 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
@@ -6093,7 +6100,7 @@
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C42" t="str">
@@ -6248,417 +6255,417 @@
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="20" t="str">
+      <c r="C44" s="19" t="str">
         <f>"598"</f>
         <v>598</v>
       </c>
-      <c r="D44" s="20" t="str">
+      <c r="D44" s="19" t="str">
         <f t="shared" ref="D44:T44" si="0">"598"</f>
         <v>598</v>
       </c>
-      <c r="E44" s="20" t="str">
+      <c r="E44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="F44" s="20" t="str">
+      <c r="F44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="G44" s="20" t="str">
+      <c r="G44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="H44" s="20" t="str">
+      <c r="H44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="I44" s="20" t="str">
+      <c r="I44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="J44" s="20" t="str">
+      <c r="J44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="K44" s="20" t="str">
+      <c r="K44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="L44" s="20" t="str">
+      <c r="L44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="M44" s="20" t="str">
+      <c r="M44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="N44" s="20" t="str">
+      <c r="N44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="O44" s="20" t="str">
+      <c r="O44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="P44" s="20" t="str">
+      <c r="P44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="Q44" s="20" t="str">
+      <c r="Q44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="R44" s="20" t="str">
+      <c r="R44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="S44" s="20" t="str">
+      <c r="S44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="T44" s="20" t="str">
+      <c r="T44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="21" t="str">
+      <c r="C45" s="16" t="str">
         <f t="shared" ref="C45:T45" si="1">"0.261"</f>
         <v>0.261</v>
       </c>
-      <c r="D45" s="21" t="str">
+      <c r="D45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="E45" s="21" t="str">
+      <c r="E45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="F45" s="21" t="str">
+      <c r="F45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="G45" s="21" t="str">
+      <c r="G45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="H45" s="21" t="str">
+      <c r="H45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="I45" s="21" t="str">
+      <c r="I45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="J45" s="21" t="str">
+      <c r="J45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="K45" s="21" t="str">
+      <c r="K45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="L45" s="21" t="str">
+      <c r="L45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="M45" s="21" t="str">
+      <c r="M45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="N45" s="21" t="str">
+      <c r="N45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="O45" s="21" t="str">
+      <c r="O45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="P45" s="21" t="str">
+      <c r="P45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="Q45" s="21" t="str">
+      <c r="Q45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="R45" s="21" t="str">
+      <c r="R45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="S45" s="21" t="str">
+      <c r="S45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
-      <c r="T45" s="21" t="str">
+      <c r="T45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.261</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46" s="6" t="s">
+      <c r="C46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="6" t="s">
+      <c r="C47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="6" t="s">
+      <c r="C48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="9" t="s">
+      <c r="C49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="2:20" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6674,7 +6681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E4A244-F4A0-9F4C-8BD2-6856518342A3}">
   <dimension ref="B2:T50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -6684,19 +6691,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="2:20" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -6758,18 +6765,18 @@
       </c>
     </row>
     <row r="4" spans="2:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" t="str">
@@ -6880,60 +6887,60 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
@@ -9120,7 +9127,7 @@
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C42" t="str">
@@ -9275,417 +9282,417 @@
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="20" t="str">
+      <c r="C44" s="19" t="str">
         <f t="shared" ref="C44:T44" si="0">"487"</f>
         <v>487</v>
       </c>
-      <c r="D44" s="20" t="str">
+      <c r="D44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="E44" s="20" t="str">
+      <c r="E44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="F44" s="20" t="str">
+      <c r="F44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="G44" s="20" t="str">
+      <c r="G44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="H44" s="20" t="str">
+      <c r="H44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="I44" s="20" t="str">
+      <c r="I44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="J44" s="20" t="str">
+      <c r="J44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="K44" s="20" t="str">
+      <c r="K44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="L44" s="20" t="str">
+      <c r="L44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="M44" s="20" t="str">
+      <c r="M44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="N44" s="20" t="str">
+      <c r="N44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="O44" s="20" t="str">
+      <c r="O44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="P44" s="20" t="str">
+      <c r="P44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="Q44" s="20" t="str">
+      <c r="Q44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="R44" s="20" t="str">
+      <c r="R44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="S44" s="20" t="str">
+      <c r="S44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="T44" s="20" t="str">
+      <c r="T44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="21" t="str">
+      <c r="C45" s="16" t="str">
         <f t="shared" ref="C45:T45" si="1">"0.316"</f>
         <v>0.316</v>
       </c>
-      <c r="D45" s="21" t="str">
+      <c r="D45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="E45" s="21" t="str">
+      <c r="E45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="F45" s="21" t="str">
+      <c r="F45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="G45" s="21" t="str">
+      <c r="G45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="H45" s="21" t="str">
+      <c r="H45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="I45" s="21" t="str">
+      <c r="I45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="J45" s="21" t="str">
+      <c r="J45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="K45" s="21" t="str">
+      <c r="K45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="L45" s="21" t="str">
+      <c r="L45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="M45" s="21" t="str">
+      <c r="M45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="N45" s="21" t="str">
+      <c r="N45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="O45" s="21" t="str">
+      <c r="O45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="P45" s="21" t="str">
+      <c r="P45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="Q45" s="21" t="str">
+      <c r="Q45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="R45" s="21" t="str">
+      <c r="R45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="S45" s="21" t="str">
+      <c r="S45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
-      <c r="T45" s="21" t="str">
+      <c r="T45" s="16" t="str">
         <f t="shared" si="1"/>
         <v>0.316</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46" s="6" t="s">
+      <c r="C46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="6" t="s">
+      <c r="C47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="6" t="s">
+      <c r="C48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="9" t="s">
+      <c r="C49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="2:20" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9695,4 +9702,262 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EAB170F55A8EC74185BD611F05A04793" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9a7766076c5b4407dfa4a29cb2dc7926">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="53729c01-e331-46af-8f84-09bea977ed00" xmlns:ns3="0b6a0b30-4523-4899-95a0-946babcdb6cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd836aff7d432d14d0dd9befd298821c" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="53729c01-e331-46af-8f84-09bea977ed00"/>
+    <xsd:import namespace="0b6a0b30-4523-4899-95a0-946babcdb6cb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="53729c01-e331-46af-8f84-09bea977ed00" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0aef40d5-b715-412d-bec7-270c58122046" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0b6a0b30-4523-4899-95a0-946babcdb6cb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{00baf980-de20-41f9-84cd-56410328c1cb}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0b6a0b30-4523-4899-95a0-946babcdb6cb">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="53729c01-e331-46af-8f84-09bea977ed00">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0b6a0b30-4523-4899-95a0-946babcdb6cb" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D808C68E-D1E3-4C38-B809-D1F64587FDC7}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18DE575B-440D-4475-B9BA-B63324F16D5E}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA6B44C-CBBB-48A8-A617-4AAE695957DC}"/>
 </file>